--- a/sieuthi/ExportExcel.xlsx
+++ b/sieuthi/ExportExcel.xlsx
@@ -15,24 +15,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
-  <si>
-    <t>Mã Nhập Hàng</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>Mã Sản Phẩm</t>
   </si>
   <si>
-    <t>Số Lượng Nhập</t>
-  </si>
-  <si>
-    <t>Ngày Nhập</t>
-  </si>
-  <si>
-    <t>LS006</t>
+    <t>Tên Sản Phẩm</t>
+  </si>
+  <si>
+    <t>Mã Nhà Cung Cấp</t>
+  </si>
+  <si>
+    <t>Ngày Sản Xuất</t>
+  </si>
+  <si>
+    <t>Hạn Sử Dụng</t>
+  </si>
+  <si>
+    <t>Kệ Hàng</t>
+  </si>
+  <si>
+    <t>Giá Bán</t>
+  </si>
+  <si>
+    <t>Đơn Vị Tính</t>
+  </si>
+  <si>
+    <t>Loại Sản Phẩm</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>BIM</t>
+  </si>
+  <si>
+    <t>RT</t>
   </si>
   <si>
     <t>0000-00-00</t>
+  </si>
+  <si>
+    <t>qửetgrdf</t>
+  </si>
+  <si>
+    <t>fjjffj</t>
+  </si>
+  <si>
+    <t>ádd</t>
+  </si>
+  <si>
+    <t>retwsd</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>sadas</t>
+  </si>
+  <si>
+    <t>sadsda</t>
+  </si>
+  <si>
+    <t>sadsdasd</t>
+  </si>
+  <si>
+    <t>sfgagasdga</t>
+  </si>
+  <si>
+    <t>SP09</t>
+  </si>
+  <si>
+    <t>Mật Ong</t>
+  </si>
+  <si>
+    <t>vinamilk</t>
+  </si>
+  <si>
+    <t>Sp1</t>
+  </si>
+  <si>
+    <t>Giỏ Hàng</t>
+  </si>
+  <si>
+    <t>Thép minh Loan</t>
+  </si>
+  <si>
+    <t>đâsdasdasd</t>
   </si>
 </sst>
 </file>
@@ -88,9 +157,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -397,62 +469,313 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="16.424561" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
-        <v>213</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0">
+        <v>2</v>
+      </c>
+      <c r="I3" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0"/>
+      <c r="I5" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0"/>
+      <c r="I6" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
+        <v>2000.5</v>
+      </c>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/sieuthi/ExportExcel.xlsx
+++ b/sieuthi/ExportExcel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>Mã Sản Phẩm</t>
   </si>
@@ -44,43 +44,37 @@
     <t>Loại Sản Phẩm</t>
   </si>
   <si>
-    <t>P9</t>
-  </si>
-  <si>
-    <t>BIM</t>
-  </si>
-  <si>
-    <t>RT</t>
+    <t>Số Lượng</t>
+  </si>
+  <si>
+    <t>b2434</t>
+  </si>
+  <si>
+    <t>banh</t>
   </si>
   <si>
     <t>0000-00-00</t>
   </si>
   <si>
-    <t>qửetgrdf</t>
-  </si>
-  <si>
-    <t>fjjffj</t>
-  </si>
-  <si>
-    <t>ádd</t>
-  </si>
-  <si>
-    <t>retwsd</t>
-  </si>
-  <si>
-    <t>sa</t>
-  </si>
-  <si>
-    <t>sadas</t>
-  </si>
-  <si>
-    <t>sadsda</t>
-  </si>
-  <si>
-    <t>sadsdasd</t>
-  </si>
-  <si>
-    <t>sfgagasdga</t>
+    <t>2023-10-05</t>
+  </si>
+  <si>
+    <t>sdjnfgfdg</t>
+  </si>
+  <si>
+    <t>bim</t>
+  </si>
+  <si>
+    <t>2023-11-05</t>
+  </si>
+  <si>
+    <t>Kệ 1</t>
+  </si>
+  <si>
+    <t>Cái</t>
+  </si>
+  <si>
+    <t>Bánh</t>
   </si>
   <si>
     <t>SP09</t>
@@ -92,16 +86,58 @@
     <t>vinamilk</t>
   </si>
   <si>
-    <t>Sp1</t>
-  </si>
-  <si>
-    <t>Giỏ Hàng</t>
-  </si>
-  <si>
-    <t>Thép minh Loan</t>
-  </si>
-  <si>
-    <t>đâsdasdasd</t>
+    <t>sp10</t>
+  </si>
+  <si>
+    <t>dấds</t>
+  </si>
+  <si>
+    <t>Anh Mai</t>
+  </si>
+  <si>
+    <t>sp11</t>
+  </si>
+  <si>
+    <t>khjfgf</t>
+  </si>
+  <si>
+    <t>sp12</t>
+  </si>
+  <si>
+    <t>Kem Đánh răng ps</t>
+  </si>
+  <si>
+    <t>SP6</t>
+  </si>
+  <si>
+    <t>Kẹo Ngậm Ngọ</t>
+  </si>
+  <si>
+    <t>La Ph</t>
+  </si>
+  <si>
+    <t>2023-10-29</t>
+  </si>
+  <si>
+    <t>Gói</t>
+  </si>
+  <si>
+    <t>SP7</t>
+  </si>
+  <si>
+    <t>Kem Đánh rrawng</t>
+  </si>
+  <si>
+    <t>Ban Sao</t>
+  </si>
+  <si>
+    <t>2023-10-10</t>
+  </si>
+  <si>
+    <t>SP8</t>
+  </si>
+  <si>
+    <t>Kẹo Ngậm</t>
   </si>
 </sst>
 </file>
@@ -157,12 +193,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -469,16 +502,16 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="19.995117" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="13.996582" bestFit="true" customWidth="true" style="0"/>
@@ -486,295 +519,289 @@
     <col min="7" max="7" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="10.568848" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="0">
-        <v>2</v>
-      </c>
-      <c r="I3" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="0"/>
-      <c r="I4" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="0"/>
-      <c r="I5" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2" t="s">
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="0"/>
-      <c r="I6" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="0"/>
-      <c r="I9" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="0"/>
-      <c r="I10" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>100000</v>
-      </c>
-      <c r="H11" s="0"/>
-      <c r="I11" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="2" t="s">
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <v>2000.5</v>
-      </c>
-      <c r="H12" s="0"/>
-      <c r="I12" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="0"/>
-      <c r="I13" s="0">
-        <v>1</v>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/sieuthi/ExportExcel.xlsx
+++ b/sieuthi/ExportExcel.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="QLSP" sheetId="1" r:id="rId4"/>
+    <sheet name="QLNCC" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -15,129 +15,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+  <si>
+    <t>Mã Nhà Cung Cấp</t>
+  </si>
+  <si>
+    <t>Tên Nhà Cung Cấp</t>
+  </si>
   <si>
     <t>Mã Sản Phẩm</t>
   </si>
   <si>
-    <t>Tên Sản Phẩm</t>
-  </si>
-  <si>
-    <t>Mã Nhà Cung Cấp</t>
-  </si>
-  <si>
-    <t>Ngày Sản Xuất</t>
-  </si>
-  <si>
-    <t>Hạn Sử Dụng</t>
-  </si>
-  <si>
-    <t>Kệ Hàng</t>
-  </si>
-  <si>
-    <t>Giá Bán</t>
-  </si>
-  <si>
-    <t>Đơn Vị Tính</t>
-  </si>
-  <si>
-    <t>Loại Sản Phẩm</t>
-  </si>
-  <si>
-    <t>Số Lượng</t>
-  </si>
-  <si>
-    <t>b2434</t>
-  </si>
-  <si>
-    <t>banh</t>
-  </si>
-  <si>
-    <t>0000-00-00</t>
-  </si>
-  <si>
-    <t>2023-10-05</t>
-  </si>
-  <si>
-    <t>sdjnfgfdg</t>
-  </si>
-  <si>
-    <t>bim</t>
-  </si>
-  <si>
-    <t>2023-11-05</t>
-  </si>
-  <si>
-    <t>Kệ 1</t>
-  </si>
-  <si>
-    <t>Cái</t>
-  </si>
-  <si>
-    <t>Bánh</t>
-  </si>
-  <si>
-    <t>SP09</t>
-  </si>
-  <si>
-    <t>Mật Ong</t>
-  </si>
-  <si>
-    <t>vinamilk</t>
-  </si>
-  <si>
-    <t>sp10</t>
-  </si>
-  <si>
-    <t>dấds</t>
-  </si>
-  <si>
-    <t>Anh Mai</t>
-  </si>
-  <si>
-    <t>sp11</t>
-  </si>
-  <si>
-    <t>khjfgf</t>
-  </si>
-  <si>
-    <t>sp12</t>
-  </si>
-  <si>
-    <t>Kem Đánh răng ps</t>
-  </si>
-  <si>
-    <t>SP6</t>
-  </si>
-  <si>
-    <t>Kẹo Ngậm Ngọ</t>
-  </si>
-  <si>
-    <t>La Ph</t>
-  </si>
-  <si>
-    <t>2023-10-29</t>
-  </si>
-  <si>
-    <t>Gói</t>
-  </si>
-  <si>
-    <t>SP7</t>
-  </si>
-  <si>
-    <t>Kem Đánh rrawng</t>
-  </si>
-  <si>
-    <t>Ban Sao</t>
-  </si>
-  <si>
-    <t>2023-10-10</t>
-  </si>
-  <si>
-    <t>SP8</t>
-  </si>
-  <si>
-    <t>Kẹo Ngậm</t>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>Số Điện Thoại</t>
+  </si>
+  <si>
+    <t>Gmail</t>
+  </si>
+  <si>
+    <t>NCC1</t>
+  </si>
+  <si>
+    <t>Nha Cung Cap 1</t>
+  </si>
+  <si>
+    <t>SP1</t>
+  </si>
+  <si>
+    <t>Dia chi 1</t>
+  </si>
+  <si>
+    <t>0987654321</t>
+  </si>
+  <si>
+    <t>ncc1@gmail.com</t>
+  </si>
+  <si>
+    <t>NCC2</t>
+  </si>
+  <si>
+    <t>Nha Cung Cap 2</t>
+  </si>
+  <si>
+    <t>SP2</t>
+  </si>
+  <si>
+    <t>Dia chi 2</t>
+  </si>
+  <si>
+    <t>$09123</t>
+  </si>
+  <si>
+    <t>ncc2@gmail.com</t>
+  </si>
+  <si>
+    <t>NCC3</t>
+  </si>
+  <si>
+    <t>Nha Cung Cap 3</t>
+  </si>
+  <si>
+    <t>SP3</t>
+  </si>
+  <si>
+    <t>Dia chi 3</t>
+  </si>
+  <si>
+    <t>0909090909</t>
+  </si>
+  <si>
+    <t>ncc3@gmail.com</t>
+  </si>
+  <si>
+    <t>NCC4</t>
+  </si>
+  <si>
+    <t>Nha Cung Cap 4</t>
+  </si>
+  <si>
+    <t>SP4</t>
+  </si>
+  <si>
+    <t>Dia chi 4</t>
+  </si>
+  <si>
+    <t>$034567</t>
+  </si>
+  <si>
+    <t>ncc4@gmail.com</t>
+  </si>
+  <si>
+    <t>NCC5</t>
+  </si>
+  <si>
+    <t>mai vàng</t>
+  </si>
+  <si>
+    <t>SP11</t>
+  </si>
+  <si>
+    <t>HCM</t>
+  </si>
+  <si>
+    <t>$09865456</t>
+  </si>
+  <si>
+    <t>maivang@gmail</t>
   </si>
 </sst>
 </file>
@@ -502,39 +487,31 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="18.709717" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="17.567139" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -553,53 +530,39 @@
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -607,201 +570,65 @@
       <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="1">
-        <v>8</v>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1">
-        <v>100000</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/sieuthi/ExportExcel.xlsx
+++ b/sieuthi/ExportExcel.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="QLNCC" sheetId="1" r:id="rId4"/>
+    <sheet name="DSHD" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -15,114 +15,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
-  <si>
-    <t>Mã Nhà Cung Cấp</t>
-  </si>
-  <si>
-    <t>Tên Nhà Cung Cấp</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+  <si>
+    <t>Mã hóa đơn</t>
   </si>
   <si>
     <t>Mã Sản Phẩm</t>
   </si>
   <si>
-    <t>Địa chỉ</t>
-  </si>
-  <si>
-    <t>Số Điện Thoại</t>
-  </si>
-  <si>
-    <t>Gmail</t>
-  </si>
-  <si>
-    <t>NCC1</t>
-  </si>
-  <si>
-    <t>Nha Cung Cap 1</t>
-  </si>
-  <si>
-    <t>SP1</t>
-  </si>
-  <si>
-    <t>Dia chi 1</t>
-  </si>
-  <si>
-    <t>0987654321</t>
-  </si>
-  <si>
-    <t>ncc1@gmail.com</t>
-  </si>
-  <si>
-    <t>NCC2</t>
-  </si>
-  <si>
-    <t>Nha Cung Cap 2</t>
-  </si>
-  <si>
-    <t>SP2</t>
-  </si>
-  <si>
-    <t>Dia chi 2</t>
-  </si>
-  <si>
-    <t>$09123</t>
-  </si>
-  <si>
-    <t>ncc2@gmail.com</t>
-  </si>
-  <si>
-    <t>NCC3</t>
-  </si>
-  <si>
-    <t>Nha Cung Cap 3</t>
-  </si>
-  <si>
-    <t>SP3</t>
-  </si>
-  <si>
-    <t>Dia chi 3</t>
-  </si>
-  <si>
-    <t>0909090909</t>
-  </si>
-  <si>
-    <t>ncc3@gmail.com</t>
-  </si>
-  <si>
-    <t>NCC4</t>
-  </si>
-  <si>
-    <t>Nha Cung Cap 4</t>
-  </si>
-  <si>
-    <t>SP4</t>
-  </si>
-  <si>
-    <t>Dia chi 4</t>
-  </si>
-  <si>
-    <t>$034567</t>
-  </si>
-  <si>
-    <t>ncc4@gmail.com</t>
-  </si>
-  <si>
-    <t>NCC5</t>
-  </si>
-  <si>
-    <t>mai vàng</t>
-  </si>
-  <si>
-    <t>SP11</t>
-  </si>
-  <si>
-    <t>HCM</t>
-  </si>
-  <si>
-    <t>$09865456</t>
-  </si>
-  <si>
-    <t>maivang@gmail</t>
+    <t>Số Lượng</t>
+  </si>
+  <si>
+    <t>Mã khách hàng</t>
+  </si>
+  <si>
+    <t>Tổng tiền</t>
+  </si>
+  <si>
+    <t>Ngày tạo</t>
+  </si>
+  <si>
+    <t>MD652f923104492</t>
+  </si>
+  <si>
+    <t>FGER34</t>
+  </si>
+  <si>
+    <t>2023-10-18</t>
+  </si>
+  <si>
+    <t>FGT</t>
   </si>
 </sst>
 </file>
@@ -182,11 +104,11 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,148 +409,76 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="18.709717" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
+        <v>1133</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>35</v>
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>1133</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
